--- a/biology/Médecine/Legesse_Wolde-Yohannes/Legesse_Wolde-Yohannes.xlsx
+++ b/biology/Médecine/Legesse_Wolde-Yohannes/Legesse_Wolde-Yohannes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Legesse Wolde-Yohannes, né en 1936, est un scientifique éthiopien, docteur en horticulture. Il est co-lauréat du Right Livelihood Award ou prix Nobel alternatif, en 1989 avec Aklilu Lemma pour des travaux sur la bilharziose, maladie qui constitue la seconde endémie parasitaire mondiale après le paludisme selon l’Organisation mondiale de la santé.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Legesse Wolde-Yohannes obtient un doctorat en science horticole à l'université technique de Hanovre, en Allemagne. Il coordonné les recherches sur l’Endod ou Phytolacca dodecandra , à Addis Ababa depuis 1980, développant des méthodes pour son extraction et son application et effectuant des études botaniques appropriées. Il est professeur agrégé de biologie à l'université d'Addis Ababa et occupe le poste de directeur de la Fondation Nationale sur l'Endod. 
 Legesse Wolde-Yohannes s’associe en 1974 aux recherches menées par Aklilu Lemma, au sein de l'équipe qu’il dirige à l’institut de pathobiologie de l'université d'Addis Ababa, et qu’il a créée en 1966.
